--- a/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="loytel" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="658">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -1942,6 +1942,9 @@
       </rPr>
       <t xml:space="preserve">vernis_gold9</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">!fromBook</t>
   </si>
   <si>
     <t xml:space="preserve">wait</t>
@@ -3672,10 +3675,10 @@
   </sheetPr>
   <dimension ref="A1:N590"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K486" activeCellId="0" sqref="K486"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E332" activeCellId="0" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6601,8 +6604,11 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="E342" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F342" s="2" t="n">
         <v>3</v>
@@ -6616,17 +6622,17 @@
       <c r="E344" s="4"/>
       <c r="F344" s="11"/>
       <c r="G344" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H344" s="4"/>
       <c r="I344" s="1" t="n">
         <v>170</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K344" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L344" s="4"/>
     </row>
@@ -6714,10 +6720,10 @@
         <v>171</v>
       </c>
       <c r="J350" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K350" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L350" s="4"/>
     </row>
@@ -6729,17 +6735,17 @@
       <c r="E351" s="4"/>
       <c r="F351" s="11"/>
       <c r="G351" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="1" t="n">
         <v>172</v>
       </c>
       <c r="J351" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K351" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L351" s="4"/>
     </row>
@@ -6758,10 +6764,10 @@
         <v>173</v>
       </c>
       <c r="J352" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K352" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L352" s="4"/>
     </row>
@@ -6773,17 +6779,17 @@
       <c r="E353" s="4"/>
       <c r="F353" s="11"/>
       <c r="G353" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H353" s="4"/>
       <c r="I353" s="1" t="n">
         <v>174</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K353" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L353" s="4"/>
     </row>
@@ -6802,10 +6808,10 @@
         <v>175</v>
       </c>
       <c r="J354" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K354" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L354" s="4"/>
     </row>
@@ -6817,7 +6823,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="11"/>
       <c r="G355" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H355" s="4"/>
       <c r="I355" s="1" t="n">
@@ -6846,10 +6852,10 @@
         <v>177</v>
       </c>
       <c r="J356" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K356" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L356" s="4"/>
     </row>
@@ -6861,17 +6867,17 @@
       <c r="E357" s="4"/>
       <c r="F357" s="11"/>
       <c r="G357" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H357" s="4"/>
       <c r="I357" s="1" t="n">
         <v>178</v>
       </c>
       <c r="J357" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K357" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L357" s="4"/>
     </row>
@@ -6912,10 +6918,10 @@
         <v>180</v>
       </c>
       <c r="J359" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K359" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L359" s="4"/>
     </row>
@@ -6927,17 +6933,17 @@
       <c r="E360" s="4"/>
       <c r="F360" s="11"/>
       <c r="G360" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H360" s="4"/>
       <c r="I360" s="1" t="n">
         <v>181</v>
       </c>
       <c r="J360" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K360" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L360" s="4"/>
     </row>
@@ -6949,17 +6955,17 @@
       <c r="E361" s="4"/>
       <c r="F361" s="11"/>
       <c r="G361" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H361" s="4"/>
       <c r="I361" s="1" t="n">
         <v>182</v>
       </c>
       <c r="J361" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K361" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L361" s="4"/>
     </row>
@@ -6986,10 +6992,10 @@
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F363" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
@@ -7003,7 +7009,7 @@
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F364" s="2" t="n">
         <v>3</v>
@@ -7039,17 +7045,17 @@
       <c r="E366" s="4"/>
       <c r="F366" s="11"/>
       <c r="G366" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H366" s="4"/>
       <c r="I366" s="1" t="n">
         <v>183</v>
       </c>
       <c r="J366" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K366" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L366" s="4"/>
     </row>
@@ -7083,7 +7089,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="11"/>
       <c r="G368" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H368" s="4"/>
       <c r="I368" s="1" t="n">
@@ -7105,17 +7111,17 @@
       <c r="E369" s="4"/>
       <c r="F369" s="11"/>
       <c r="G369" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H369" s="4"/>
       <c r="I369" s="1" t="n">
         <v>186</v>
       </c>
       <c r="J369" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K369" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L369" s="4"/>
     </row>
@@ -7134,10 +7140,10 @@
         <v>187</v>
       </c>
       <c r="J370" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K370" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L370" s="4"/>
     </row>
@@ -7156,10 +7162,10 @@
         <v>188</v>
       </c>
       <c r="J371" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K371" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L371" s="4"/>
     </row>
@@ -7171,17 +7177,17 @@
       <c r="E372" s="4"/>
       <c r="F372" s="11"/>
       <c r="G372" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H372" s="4"/>
       <c r="I372" s="1" t="n">
         <v>189</v>
       </c>
       <c r="J372" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K372" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L372" s="4"/>
     </row>
@@ -7200,10 +7206,10 @@
         <v>190</v>
       </c>
       <c r="J373" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K373" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L373" s="4"/>
     </row>
@@ -7239,10 +7245,10 @@
         <v>191</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K375" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L375" s="4"/>
     </row>
@@ -7286,10 +7292,10 @@
         <v>192</v>
       </c>
       <c r="J378" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K378" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L378" s="4"/>
     </row>
@@ -7301,17 +7307,17 @@
       <c r="E379" s="4"/>
       <c r="F379" s="11"/>
       <c r="G379" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H379" s="4"/>
       <c r="I379" s="1" t="n">
         <v>193</v>
       </c>
       <c r="J379" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K379" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L379" s="4"/>
     </row>
@@ -7352,10 +7358,10 @@
         <v>195</v>
       </c>
       <c r="J381" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K381" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L381" s="4"/>
     </row>
@@ -7367,17 +7373,17 @@
       <c r="E382" s="4"/>
       <c r="F382" s="11"/>
       <c r="G382" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H382" s="4"/>
       <c r="I382" s="1" t="n">
         <v>196</v>
       </c>
       <c r="J382" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K382" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L382" s="4"/>
     </row>
@@ -7389,17 +7395,17 @@
       <c r="E383" s="4"/>
       <c r="F383" s="11"/>
       <c r="G383" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H383" s="4"/>
       <c r="I383" s="1" t="n">
         <v>197</v>
       </c>
       <c r="J383" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K383" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L383" s="4"/>
     </row>
@@ -7411,17 +7417,17 @@
       <c r="E384" s="4"/>
       <c r="F384" s="11"/>
       <c r="G384" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H384" s="4"/>
       <c r="I384" s="1" t="n">
         <v>198</v>
       </c>
       <c r="J384" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K384" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L384" s="4"/>
     </row>
@@ -7440,10 +7446,10 @@
         <v>199</v>
       </c>
       <c r="J385" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K385" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L385" s="4"/>
     </row>
@@ -7455,17 +7461,17 @@
       <c r="E386" s="4"/>
       <c r="F386" s="11"/>
       <c r="G386" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H386" s="4"/>
       <c r="I386" s="1" t="n">
         <v>200</v>
       </c>
       <c r="J386" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K386" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L386" s="4"/>
     </row>
@@ -7484,10 +7490,10 @@
         <v>201</v>
       </c>
       <c r="J387" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K387" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L387" s="4"/>
     </row>
@@ -7506,10 +7512,10 @@
         <v>202</v>
       </c>
       <c r="J388" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K388" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L388" s="4"/>
     </row>
@@ -7521,17 +7527,17 @@
       <c r="E389" s="4"/>
       <c r="F389" s="11"/>
       <c r="G389" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H389" s="4"/>
       <c r="I389" s="1" t="n">
         <v>203</v>
       </c>
       <c r="J389" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K389" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L389" s="4"/>
     </row>
@@ -7550,10 +7556,10 @@
         <v>204</v>
       </c>
       <c r="J390" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K390" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L390" s="4"/>
     </row>
@@ -7565,17 +7571,17 @@
       <c r="E391" s="4"/>
       <c r="F391" s="16"/>
       <c r="G391" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H391" s="4"/>
       <c r="I391" s="1" t="n">
         <v>205</v>
       </c>
       <c r="J391" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K391" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L391" s="4"/>
     </row>
@@ -7587,17 +7593,17 @@
       <c r="E392" s="4"/>
       <c r="F392" s="16"/>
       <c r="G392" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H392" s="4"/>
       <c r="I392" s="1" t="n">
         <v>206</v>
       </c>
       <c r="J392" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K392" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L392" s="4"/>
     </row>
@@ -7616,10 +7622,10 @@
         <v>207</v>
       </c>
       <c r="J393" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K393" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L393" s="4"/>
     </row>
@@ -7644,17 +7650,17 @@
       <c r="E395" s="4"/>
       <c r="F395" s="16"/>
       <c r="G395" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H395" s="4"/>
       <c r="I395" s="1" t="n">
         <v>208</v>
       </c>
       <c r="J395" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K395" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L395" s="4"/>
     </row>
@@ -7673,10 +7679,10 @@
         <v>209</v>
       </c>
       <c r="J396" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K396" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L396" s="4"/>
     </row>
@@ -7701,17 +7707,17 @@
       <c r="E398" s="4"/>
       <c r="F398" s="16"/>
       <c r="G398" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H398" s="4"/>
       <c r="I398" s="1" t="n">
         <v>210</v>
       </c>
       <c r="J398" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K398" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L398" s="4"/>
     </row>
@@ -7730,10 +7736,10 @@
         <v>211</v>
       </c>
       <c r="J399" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K399" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L399" s="4"/>
     </row>
@@ -7787,10 +7793,10 @@
         <v>213</v>
       </c>
       <c r="J402" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K402" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L402" s="4"/>
     </row>
@@ -7802,7 +7808,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="16"/>
       <c r="G403" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H403" s="4"/>
       <c r="I403" s="1" t="n">
@@ -7824,17 +7830,17 @@
       <c r="E404" s="4"/>
       <c r="F404" s="16"/>
       <c r="G404" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H404" s="4"/>
       <c r="I404" s="1" t="n">
         <v>215</v>
       </c>
       <c r="J404" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K404" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L404" s="4"/>
     </row>
@@ -7853,10 +7859,10 @@
         <v>216</v>
       </c>
       <c r="J405" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K405" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L405" s="4"/>
     </row>
@@ -7868,17 +7874,17 @@
       <c r="E406" s="4"/>
       <c r="F406" s="16"/>
       <c r="G406" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H406" s="4"/>
       <c r="I406" s="1" t="n">
         <v>217</v>
       </c>
       <c r="J406" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K406" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L406" s="4"/>
     </row>
@@ -7897,10 +7903,10 @@
         <v>218</v>
       </c>
       <c r="J407" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K407" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L407" s="4"/>
     </row>
@@ -7912,17 +7918,17 @@
       <c r="E408" s="4"/>
       <c r="F408" s="16"/>
       <c r="G408" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H408" s="4"/>
       <c r="I408" s="1" t="n">
         <v>219</v>
       </c>
       <c r="J408" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K408" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L408" s="4"/>
     </row>
@@ -7941,10 +7947,10 @@
         <v>220</v>
       </c>
       <c r="J409" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K409" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L409" s="4"/>
     </row>
@@ -7963,10 +7969,10 @@
         <v>221</v>
       </c>
       <c r="J410" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K410" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L410" s="4"/>
     </row>
@@ -7978,7 +7984,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="16"/>
       <c r="G411" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H411" s="4"/>
       <c r="I411" s="1" t="n">
@@ -8000,17 +8006,17 @@
       <c r="E412" s="4"/>
       <c r="F412" s="16"/>
       <c r="G412" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H412" s="4"/>
       <c r="I412" s="1" t="n">
         <v>223</v>
       </c>
       <c r="J412" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K412" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L412" s="4"/>
     </row>
@@ -8029,10 +8035,10 @@
         <v>224</v>
       </c>
       <c r="J413" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K413" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L413" s="4"/>
     </row>
@@ -8044,17 +8050,17 @@
       <c r="E414" s="4"/>
       <c r="F414" s="16"/>
       <c r="G414" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H414" s="4"/>
       <c r="I414" s="1" t="n">
         <v>225</v>
       </c>
       <c r="J414" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K414" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L414" s="4"/>
     </row>
@@ -8073,10 +8079,10 @@
         <v>226</v>
       </c>
       <c r="J415" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K415" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L415" s="4"/>
     </row>
@@ -8095,10 +8101,10 @@
         <v>227</v>
       </c>
       <c r="J416" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K416" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L416" s="4"/>
     </row>
@@ -8110,17 +8116,17 @@
       <c r="E417" s="4"/>
       <c r="F417" s="16"/>
       <c r="G417" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H417" s="4"/>
       <c r="I417" s="1" t="n">
         <v>228</v>
       </c>
       <c r="J417" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K417" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L417" s="4"/>
     </row>
@@ -8132,7 +8138,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="16"/>
       <c r="G418" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H418" s="4"/>
       <c r="I418" s="1" t="n">
@@ -8154,17 +8160,17 @@
       <c r="E419" s="4"/>
       <c r="F419" s="16"/>
       <c r="G419" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H419" s="4"/>
       <c r="I419" s="1" t="n">
         <v>230</v>
       </c>
       <c r="J419" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K419" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L419" s="4"/>
     </row>
@@ -8205,10 +8211,10 @@
         <v>232</v>
       </c>
       <c r="J421" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K421" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L421" s="4"/>
     </row>
@@ -8220,17 +8226,17 @@
       <c r="E422" s="4"/>
       <c r="F422" s="16"/>
       <c r="G422" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H422" s="4"/>
       <c r="I422" s="1" t="n">
         <v>233</v>
       </c>
       <c r="J422" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K422" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L422" s="4"/>
     </row>
@@ -8281,7 +8287,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8289,7 +8295,7 @@
         <v>326</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="430" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,10 +8311,10 @@
         <v>234</v>
       </c>
       <c r="J430" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K430" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L430" s="4"/>
     </row>
@@ -8320,17 +8326,17 @@
       <c r="E431" s="4"/>
       <c r="F431" s="16"/>
       <c r="G431" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H431" s="4"/>
       <c r="I431" s="1" t="n">
         <v>235</v>
       </c>
       <c r="J431" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K431" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L431" s="4"/>
     </row>
@@ -8347,10 +8353,10 @@
         <v>236</v>
       </c>
       <c r="J432" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K432" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L432" s="4"/>
     </row>
@@ -8369,10 +8375,10 @@
         <v>237</v>
       </c>
       <c r="J433" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K433" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L433" s="4"/>
     </row>
@@ -8391,10 +8397,10 @@
         <v>238</v>
       </c>
       <c r="J434" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K434" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L434" s="4"/>
     </row>
@@ -8406,17 +8412,17 @@
       <c r="E435" s="4"/>
       <c r="F435" s="16"/>
       <c r="G435" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H435" s="4"/>
       <c r="I435" s="1" t="n">
         <v>239</v>
       </c>
       <c r="J435" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K435" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L435" s="4"/>
     </row>
@@ -8435,10 +8441,10 @@
         <v>240</v>
       </c>
       <c r="J436" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K436" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L436" s="4"/>
     </row>
@@ -8457,10 +8463,10 @@
         <v>241</v>
       </c>
       <c r="J437" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K437" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L437" s="4"/>
     </row>
@@ -8477,10 +8483,10 @@
         <v>242</v>
       </c>
       <c r="J438" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K438" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L438" s="4"/>
     </row>
@@ -8492,17 +8498,17 @@
       <c r="E439" s="4"/>
       <c r="F439" s="16"/>
       <c r="G439" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H439" s="4"/>
       <c r="I439" s="1" t="n">
         <v>299</v>
       </c>
       <c r="J439" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K439" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L439" s="4"/>
     </row>
@@ -8519,10 +8525,10 @@
         <v>300</v>
       </c>
       <c r="J440" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K440" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L440" s="4"/>
     </row>
@@ -8538,7 +8544,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8546,7 +8552,7 @@
         <v>94</v>
       </c>
       <c r="F445" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,7 +8560,7 @@
         <v>243</v>
       </c>
       <c r="J446" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K446" s="8" t="s">
         <v>215</v>
@@ -8566,7 +8572,7 @@
         <v>244</v>
       </c>
       <c r="J447" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K447" s="14" t="s">
         <v>217</v>
@@ -8578,7 +8584,7 @@
         <v>245</v>
       </c>
       <c r="J448" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K448" s="14"/>
     </row>
@@ -8588,7 +8594,7 @@
         <v>246</v>
       </c>
       <c r="J449" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K449" s="14"/>
     </row>
@@ -8598,7 +8604,7 @@
         <v>247</v>
       </c>
       <c r="J450" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K450" s="14"/>
     </row>
@@ -8614,7 +8620,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8630,10 +8636,10 @@
         <v>270</v>
       </c>
       <c r="J460" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K460" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8641,10 +8647,10 @@
         <v>271</v>
       </c>
       <c r="J461" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K461" s="19" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,10 +8661,10 @@
         <v>272</v>
       </c>
       <c r="J462" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K462" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,10 +8672,10 @@
         <v>273</v>
       </c>
       <c r="J463" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K463" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,10 +8683,10 @@
         <v>274</v>
       </c>
       <c r="J464" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K464" s="18" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -8693,10 +8699,10 @@
         <v>275</v>
       </c>
       <c r="J465" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K465" s="19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,10 +8710,10 @@
         <v>276</v>
       </c>
       <c r="J466" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K466" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8715,10 +8721,10 @@
         <v>277</v>
       </c>
       <c r="J467" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K467" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8726,10 +8732,10 @@
         <v>278</v>
       </c>
       <c r="J468" s="15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K468" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,10 +8770,10 @@
         <v>280</v>
       </c>
       <c r="J471" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K471" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8778,10 +8784,10 @@
         <v>281</v>
       </c>
       <c r="J472" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K472" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,10 +8795,10 @@
         <v>282</v>
       </c>
       <c r="J473" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K473" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8813,24 +8819,24 @@
         <v>283</v>
       </c>
       <c r="J475" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K475" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G476" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I476" s="1" t="n">
         <v>284</v>
       </c>
       <c r="J476" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K476" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,10 +8847,10 @@
         <v>285</v>
       </c>
       <c r="J477" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K477" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,10 +8861,10 @@
         <v>286</v>
       </c>
       <c r="J478" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K478" s="19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8880,10 +8886,10 @@
         <v>288</v>
       </c>
       <c r="J480" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K480" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,10 +8900,10 @@
         <v>289</v>
       </c>
       <c r="J481" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K481" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,24 +8914,24 @@
         <v>290</v>
       </c>
       <c r="J482" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K482" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G483" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I483" s="1" t="n">
         <v>291</v>
       </c>
       <c r="J483" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K483" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,10 +8939,10 @@
         <v>292</v>
       </c>
       <c r="J484" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K484" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8955,10 +8961,10 @@
         <v>294</v>
       </c>
       <c r="J486" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K486" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8966,10 +8972,10 @@
         <v>295</v>
       </c>
       <c r="J487" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K487" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,10 +8983,10 @@
         <v>296</v>
       </c>
       <c r="J488" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K488" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8988,10 +8994,10 @@
         <v>297</v>
       </c>
       <c r="J489" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K489" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,10 +9005,10 @@
         <v>298</v>
       </c>
       <c r="J490" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K490" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,7 +9020,7 @@
         <v>94</v>
       </c>
       <c r="F492" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,7 +9030,7 @@
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9032,10 +9038,10 @@
         <v>301</v>
       </c>
       <c r="J498" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K498" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9043,10 +9049,10 @@
         <v>302</v>
       </c>
       <c r="J499" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K499" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,7 +9060,7 @@
         <v>92</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,7 +9070,7 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,10 +9078,10 @@
         <v>303</v>
       </c>
       <c r="J506" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K506" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,10 +9100,10 @@
         <v>305</v>
       </c>
       <c r="J508" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K508" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,7 +9111,7 @@
         <v>92</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J509" s="7"/>
     </row>
@@ -9116,7 +9122,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,10 +9130,10 @@
         <v>306</v>
       </c>
       <c r="J513" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K513" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9146,10 +9152,10 @@
         <v>308</v>
       </c>
       <c r="J515" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K515" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,7 +9163,7 @@
         <v>92</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J516" s="7"/>
     </row>
@@ -9168,7 +9174,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9176,10 +9182,10 @@
         <v>309</v>
       </c>
       <c r="J520" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K520" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9187,10 +9193,10 @@
         <v>310</v>
       </c>
       <c r="J521" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K521" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,7 +9204,7 @@
         <v>92</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J522" s="7"/>
     </row>
@@ -9209,7 +9215,7 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9225,10 +9231,10 @@
         <v>311</v>
       </c>
       <c r="J527" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K527" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9240,10 +9246,10 @@
         <v>312</v>
       </c>
       <c r="J529" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K529" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9264,10 +9270,10 @@
         <v>313</v>
       </c>
       <c r="J532" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K532" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9275,10 +9281,10 @@
         <v>314</v>
       </c>
       <c r="J533" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K533" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,10 +9292,10 @@
         <v>315</v>
       </c>
       <c r="J534" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K534" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,7 +9303,7 @@
         <v>92</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J535" s="7"/>
     </row>
@@ -9308,7 +9314,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,10 +9322,10 @@
         <v>316</v>
       </c>
       <c r="J539" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K539" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,10 +9333,10 @@
         <v>317</v>
       </c>
       <c r="J540" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K540" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,10 +9344,10 @@
         <v>318</v>
       </c>
       <c r="J541" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K541" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,7 +9355,7 @@
         <v>92</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J542" s="7"/>
     </row>
@@ -9360,7 +9366,7 @@
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F547" s="1"/>
     </row>
@@ -9371,7 +9377,7 @@
       </c>
       <c r="F548" s="4"/>
       <c r="G548" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +9399,7 @@
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F551" s="4" t="n">
         <v>2</v>
@@ -9403,10 +9409,10 @@
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F552" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G552" s="4"/>
     </row>
@@ -9416,14 +9422,14 @@
         <v>127</v>
       </c>
       <c r="F553" s="16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F554" s="4" t="n">
         <v>2</v>
@@ -9435,7 +9441,7 @@
         <v>94</v>
       </c>
       <c r="F555" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9444,10 +9450,10 @@
         <v>320</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K556" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9459,10 +9465,10 @@
         <v>321</v>
       </c>
       <c r="J557" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K557" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,10 +9477,10 @@
         <v>322</v>
       </c>
       <c r="J558" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K558" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9486,10 +9492,10 @@
         <v>323</v>
       </c>
       <c r="J559" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K559" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9498,10 +9504,10 @@
         <v>324</v>
       </c>
       <c r="J560" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K560" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="561" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9510,7 +9516,7 @@
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>151</v>
@@ -9541,10 +9547,10 @@
         <v>325</v>
       </c>
       <c r="J563" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K563" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9552,7 +9558,7 @@
         <v>127</v>
       </c>
       <c r="F564" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I564" s="6"/>
       <c r="J564" s="12"/>
@@ -9565,10 +9571,10 @@
         <v>326</v>
       </c>
       <c r="J565" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K565" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9580,10 +9586,10 @@
         <v>327</v>
       </c>
       <c r="J566" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K566" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,10 +9599,10 @@
         <v>328</v>
       </c>
       <c r="J567" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K567" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,10 +9616,10 @@
         <v>329</v>
       </c>
       <c r="J568" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K568" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,10 +9629,10 @@
         <v>330</v>
       </c>
       <c r="J569" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K569" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9638,16 +9644,16 @@
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I571" s="6" t="n">
         <v>331</v>
       </c>
       <c r="J571" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K571" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9668,7 +9674,7 @@
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F573" s="1"/>
       <c r="G573" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I573" s="6" t="n">
         <v>333</v>
@@ -9689,16 +9695,16 @@
         <v>334</v>
       </c>
       <c r="J574" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K574" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I575" s="6" t="n">
         <v>335</v>
@@ -9719,16 +9725,16 @@
         <v>336</v>
       </c>
       <c r="J576" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K576" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F577" s="1"/>
       <c r="G577" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I577" s="6" t="n">
         <v>337</v>
@@ -9749,18 +9755,18 @@
         <v>338</v>
       </c>
       <c r="J578" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K578" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E579" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I579" s="6"/>
       <c r="J579" s="12"/>
@@ -9775,10 +9781,10 @@
         <v>339</v>
       </c>
       <c r="J580" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K580" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,10 +9794,10 @@
         <v>340</v>
       </c>
       <c r="J581" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K581" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9801,10 +9807,10 @@
         <v>341</v>
       </c>
       <c r="J582" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K582" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="738">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -3057,6 +3057,311 @@
 My handiwork has its limits, but eventually, It will be nice to have some flashy upgrades.</t>
   </si>
   <si>
+    <t xml:space="preserve">debt7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">あ、ああ…#pcか。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">借金を返済してきてくれたようだな。感謝するよ。
+…浮かない顔をしているだって？ うむ、実は、お前が留守の間にミシリアの高官に会ってきたのだ。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, yes... it's you, #pc. Looks like you've made another payment. I'm grateful.
+...You say I look troubled? Well, the truth is, I had a meeting with a high-ranking official from Mysilia while you were away.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">濡れ衣とはいえ、私も一応ミシリアでは法律上の罪人だからな、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">厳粛な会見になると思って臨んだのだが…</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if it was a false charge, I’m still technically a criminal under Mysilian law, so I expected a solemn and formal audience...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadeOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ミシリア宮廷の一室 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A room in the Mysilian court -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よう、遅かったな、ロイテル。先に始めてたぜ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, you're late, Loytel. We already got started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bunny1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeeeek!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">久しいな、ロイテル。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been a while, Loytel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホォー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hooo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お…お前たち、ここで何をしている？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W–What are you all doing here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何って、見りゃわかるだろう？パーティーだよ。テーブル一杯のご馳走に、美酒と美女達だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think? It’s a party! A table full of food, fine booze, and beautiful women!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いやぁ～ん、ベーリッヒさまったらぁ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my, Lord Barrich, you're so naughty! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酔っ払い過ぎだぞ、ベーリッヒ。君が羽目を外さないよう見ていろと、妹からきつく言われているんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re drinking way too much, Barrich. Your sister warned me to keep an eye on you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの高官と重大な会談があると聞いていたが、どうやら部屋を間違えたようだ。失礼する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was told there’d be an important meeting with a Mysilian official. But it seems I’ve entered the wrong room. Pardon me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相変わらずお固いねえ。久しぶりの再会なんだ、お前さんもこのかわい子ちゃんの隣に座って楽しんだらどうだ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still so uptight, huh? It’s been ages—why not relax and sit next to this lovely lady?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴ…ゴホン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahem!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カ…カルドーン様…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L–Lord Caldorn...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前たち、ミシリアの重鎮をこんな破廉恥な場所に呼び出して何のつもりだ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You fools! How dare you summon a Mysilian dignitary to such a disgraceful gathering!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…待て待て、ロイテル。お主と話をしたい高官というのは、わしのことだ。
+ベーリッヒの小僧に準備を任せたせいで、こんな趣向になってしまったが、まあ座りたまえ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold on now, Loytel. The official you’re here to meet... is me.
+I left the arrangements to young Barrich here, and this is what I walked into. Well, have a seat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハッ、閣下がそう仰るなら失礼して。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, if Your Excellency insists, I shall comply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うむ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの都を訪れるのも久しかろう。オルヴィナから取り寄せたワインも用意してある。今日はゆっくりくつろぎたまえ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been some time since you last visited the Mysilian capital. We've prepared wine from Olvina—relax and enjoy yourself tonight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">は、はぁ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうした、お主はオルヴィナのワインに目がなかったはずだろう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s wrong? I thought you couldn’t resist Olvina wine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その…これではまるで、接待を受けているような…私はミシリアの罪人のはずではありませんか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well... this feels more like I’m being entertained. But am I not still a criminal in the eyes of Mysilia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罪人か、ふむ…そうじゃのう…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criminal, hmm… Yes, well...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お主の身に降り掛かった災難には、わしも心底同情しておるのだ。このような悲劇を、いったい誰が予期できたであろう？
+その、あの花はお主のなんといったか。
+幻の…そう、お主の幻の空色チューリッ…ぶふぉっ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I truly sympathize with the misfortune that befell you. Who could have foreseen such a tragedy?
+That... what did you call that flower of yours? The phantom... ah yes, your phantom azure tul—pffft! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">カルドーン様！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord Caldorn!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…す、すまぬ、わしとしたことが。
+もちろん、これは笑い事などではない。この花のせいで、ミシリアとて、お主のような稀有な人材を失いかけたのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M–My apologies, I lost composure for a moment.
+Of course, it’s no laughing matter. Because of that flower, Mysilia almost lost a rare talent like yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カルドーン様…身に余るお言葉です。閣下が私をそこまで認めてくださっていたとは。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your words honor me more than I deserve. I never imagined Your Excellency held me in such esteem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うむ。お主の才能を疑うものなど、この国には一人もおるまい。実際の所、今回の借金騒動で、お主はさらにミシリアで名をあげたのだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeed. There’s not a soul in this nation who doubts your talent.
+In fact, your recent debt incident has only raised your profile within Mysilia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">二千万オレンなどという法外な、あまりに法外な額…それを返済しようというお主の誠実さには頭が下がる思いだ。
+ここにいるベーリッヒのような輩なら、書状など破り捨て、何食わぬ顔で宮廷に顔を出しただろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty million Orens—an absurd, utterly absurd amount... and yet you’re determined to pay it back. Your sincerity is commendable.
+Someone like Barrich here would’ve just torn up the letter and returned to court like nothing happened. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">お主は、一編たりとも疑いをもたなかったのだな、あの書状に。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You didn’t doubt that letter for even a second, did you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ん？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ、そうか。いや、忘れてくれ、ロイテル。
+ミシリアの将来、そしてお主の処遇について、語りたいことは山程ある。だが、今夜はお主のための酒宴だ。
+さあさあ、そこの娘たち、ミシリアの英士にワインを！今宵は無礼講じゃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, never mind. Forget it, Loytel.
+There’s much I’d like to discuss—about Mysilia’s future, and your place in it. But tonight is your banquet.
+Come, ladies! Pour some wine for Mysilia’s finest! Tonight, we cast off all formalities! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ということだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And that’s what happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ま…待て待て。何やら腑に落ちない会談ではあったが、私もオルヴィナ・ワインにうつつを抜かしてばかりいたわけではない。酔いつぶれたカルドーン閣下に支援の約束を取り付けてきたよ。
+ミシリアの兵器庫から、我々の役に立ちそうなものを横流ししてくれるそうだ。
+どんなものが届くかはわからないが、ロイテル・マートに並べておくから、気が向いたら確認してみてくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W–Wait! I admit, it was a rather confusing meeting, but I wasn’t just fawning over Olvina wine the whole time. While Lord Caldorn was passed out drunk, I managed to secure a promise of support.
+He agreed to slip us a few items from the Mysilian armory that might be of use.
+I have no idea what’ll show up, but I’ll stock it at Loytel Mart. Check in when you’ve got the time. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3082,12 +3387,6 @@
     <t xml:space="preserve">demitas?</t>
   </si>
   <si>
-    <t xml:space="preserve">fadeOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setBG</t>
-  </si>
-  <si>
     <t xml:space="preserve">bg3</t>
   </si>
   <si>
@@ -3179,9 +3478,6 @@
   </si>
   <si>
     <t xml:space="preserve">...D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sound</t>
   </si>
   <si>
     <t xml:space="preserve">escape</t>
@@ -3213,7 +3509,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3317,6 +3613,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3366,7 +3669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3455,15 +3758,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3673,12 +3992,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N590"/>
+  <dimension ref="A1:N657"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E332" activeCellId="0" sqref="E332"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K567" activeCellId="0" sqref="K567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3736,7 +4055,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="1" t="n">
         <f aca="false">MAX(I4:I1048576)</f>
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,505 +9683,1238 @@
         <v>98</v>
       </c>
     </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I546" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="J546" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K546" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F547" s="1"/>
-    </row>
-    <row r="548" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="22"/>
+      <c r="G547" s="4"/>
+      <c r="I547" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F548" s="4"/>
-      <c r="G548" s="22" t="s">
-        <v>616</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F548" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="23"/>
+      <c r="E549" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F549" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="G549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F550" s="16" t="s">
-        <v>327</v>
+        <v>621</v>
+      </c>
+      <c r="F550" s="23" t="s">
+        <v>622</v>
       </c>
       <c r="G550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F551" s="4" t="n">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="F551" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="G551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F552" s="24" t="s">
-        <v>619</v>
+        <v>406</v>
+      </c>
+      <c r="F552" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="G552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D553" s="4"/>
-      <c r="E553" s="4" t="s">
+      <c r="G553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I553" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="J553" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="K553" s="25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J554" s="7"/>
+      <c r="K554" s="4"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G555" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I555" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="J555" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K555" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E556" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J556" s="7"/>
+      <c r="K556" s="4"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G557" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I557" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="J557" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K557" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G558" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I558" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="J558" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K558" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G559" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I559" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="J559" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="K559" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I560" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="J560" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K560" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G561" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I561" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="J561" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K561" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E562" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J562" s="7"/>
+      <c r="K562" s="4"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G563" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I563" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="J563" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K563" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G564" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I564" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="J564" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K564" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I565" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="J565" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K565" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I566" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="J566" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K566" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G567" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I567" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="J567" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K567" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G568" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I568" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="J568" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K568" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E569" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G569" s="26"/>
+      <c r="J569" s="7"/>
+      <c r="K569" s="4"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G570" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I570" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="J570" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K570" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I571" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="J571" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K571" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I572" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="J572" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K572" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G573" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I573" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="J573" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K573" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I574" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="J574" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K574" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G575" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I575" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="J575" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K575" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G576" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I576" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="J576" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="K576" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I577" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="J577" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K577" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G578" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I578" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="J578" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="K578" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I579" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="J579" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K579" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G580" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I580" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="J580" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K580" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I581" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="J581" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K581" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J582" s="7"/>
+      <c r="K582" s="4"/>
+    </row>
+    <row r="583" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G583" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I583" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="J583" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="K583" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I584" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="J584" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K584" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G585" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I585" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="J585" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K585" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G586" s="26"/>
+      <c r="I586" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="J586" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="K586" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G587" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I587" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="J587" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K587" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G588" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I588" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="J588" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K588" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G589" s="26"/>
+      <c r="I589" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="J589" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K589" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G590" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I590" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="J590" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K590" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G591" s="26"/>
+      <c r="I591" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="J591" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K591" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G592" s="26"/>
+      <c r="I592" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="J592" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="K592" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G593" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I593" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="J593" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K593" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E594" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G594" s="26"/>
+      <c r="J594" s="7"/>
+      <c r="K594" s="4"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G595" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I595" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="J595" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K595" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J596" s="7"/>
+      <c r="K596" s="4"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D597" s="4"/>
+      <c r="E597" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F597" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G597" s="4"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D598" s="4"/>
+      <c r="E598" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F598" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G598" s="4"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D599" s="4"/>
+      <c r="E599" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F599" s="23"/>
+      <c r="G599" s="4"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D600" s="4"/>
+      <c r="E600" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F600" s="16"/>
+      <c r="G600" s="4"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D601" s="4"/>
+      <c r="E601" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F601" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G601" s="4"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J602" s="7"/>
+      <c r="K602" s="4"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J603" s="7"/>
+      <c r="K603" s="4"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J604" s="7"/>
+      <c r="K604" s="4"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I605" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="J605" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K605" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G606" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I606" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="J606" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K606" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I607" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="J607" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="K607" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J608" s="27"/>
+      <c r="K608" s="4"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E609" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J609" s="7"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E610" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F614" s="1"/>
+    </row>
+    <row r="615" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D615" s="4"/>
+      <c r="E615" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F615" s="4"/>
+      <c r="G615" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D616" s="4"/>
+      <c r="E616" s="4"/>
+      <c r="F616" s="22"/>
+      <c r="G616" s="4"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D617" s="4"/>
+      <c r="E617" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F617" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G617" s="4"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D618" s="4"/>
+      <c r="E618" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F618" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G618" s="4"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D619" s="4"/>
+      <c r="E619" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F619" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G619" s="4"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D620" s="4"/>
+      <c r="E620" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F553" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="G553" s="4"/>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D554" s="4"/>
-      <c r="E554" s="4" t="s">
+      <c r="F620" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="G620" s="4"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D621" s="4"/>
+      <c r="E621" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F554" s="4" t="n">
+      <c r="F621" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="1" t="s">
+      <c r="G621" s="4"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E622" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F555" s="25" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F556" s="1"/>
-      <c r="I556" s="1" t="n">
+      <c r="F622" s="29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F623" s="1"/>
+      <c r="I623" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="J556" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K556" s="26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F557" s="1"/>
-      <c r="G557" s="1" t="s">
+      <c r="J623" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K623" s="30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F624" s="1"/>
+      <c r="G624" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I557" s="6" t="n">
+      <c r="I624" s="6" t="n">
         <v>321</v>
       </c>
-      <c r="J557" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K557" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F558" s="1"/>
-      <c r="I558" s="6" t="n">
+      <c r="J624" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K624" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F625" s="1"/>
+      <c r="I625" s="6" t="n">
         <v>322</v>
       </c>
-      <c r="J558" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="K558" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F559" s="1"/>
-      <c r="G559" s="1" t="s">
+      <c r="J625" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="K625" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F626" s="1"/>
+      <c r="G626" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I559" s="6" t="n">
+      <c r="I626" s="6" t="n">
         <v>323</v>
       </c>
-      <c r="J559" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="K559" s="8" t="s">
+      <c r="J626" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="K626" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F627" s="1"/>
+      <c r="I627" s="6" t="n">
+        <v>324</v>
+      </c>
+      <c r="J627" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="K627" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="628" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="4"/>
+      <c r="B628" s="4"/>
+      <c r="C628" s="4"/>
+      <c r="D628" s="4"/>
+      <c r="E628" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
+      <c r="J628" s="15"/>
+      <c r="K628" s="4"/>
+      <c r="L628" s="4"/>
+    </row>
+    <row r="629" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="4"/>
+      <c r="B629" s="4"/>
+      <c r="C629" s="4"/>
+      <c r="D629" s="4"/>
+      <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
+      <c r="J629" s="15"/>
+      <c r="K629" s="4"/>
+      <c r="L629" s="4"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F630" s="1"/>
+      <c r="G630" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I630" s="6" t="n">
+        <v>325</v>
+      </c>
+      <c r="J630" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K630" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E631" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F631" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="I631" s="6"/>
+      <c r="J631" s="12"/>
+      <c r="K631" s="8"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F632" s="1"/>
+      <c r="G632" s="4"/>
+      <c r="I632" s="6" t="n">
+        <v>326</v>
+      </c>
+      <c r="J632" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="K632" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F633" s="1"/>
+      <c r="G633" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I633" s="6" t="n">
+        <v>327</v>
+      </c>
+      <c r="J633" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="K633" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F634" s="1"/>
+      <c r="G634" s="4"/>
+      <c r="I634" s="6" t="n">
+        <v>328</v>
+      </c>
+      <c r="J634" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="K634" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D635" s="4"/>
+      <c r="E635" s="4"/>
+      <c r="F635" s="1"/>
+      <c r="G635" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I635" s="6" t="n">
+        <v>329</v>
+      </c>
+      <c r="J635" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="K635" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F636" s="1"/>
+      <c r="G636" s="4"/>
+      <c r="I636" s="6" t="n">
+        <v>330</v>
+      </c>
+      <c r="J636" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="K636" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F637" s="1"/>
+      <c r="I637" s="6"/>
+      <c r="J637" s="6"/>
+      <c r="K637" s="8"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F638" s="1"/>
+      <c r="G638" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I638" s="6" t="n">
+        <v>331</v>
+      </c>
+      <c r="J638" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="K638" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F639" s="1"/>
+      <c r="G639" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I639" s="6" t="n">
+        <v>332</v>
+      </c>
+      <c r="J639" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K639" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F640" s="1"/>
+      <c r="G640" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I640" s="6" t="n">
+        <v>333</v>
+      </c>
+      <c r="J640" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K640" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F641" s="1"/>
+      <c r="G641" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I641" s="6" t="n">
+        <v>334</v>
+      </c>
+      <c r="J641" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="K641" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F642" s="1"/>
+      <c r="G642" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I642" s="6" t="n">
+        <v>335</v>
+      </c>
+      <c r="J642" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K642" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F643" s="1"/>
+      <c r="G643" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I643" s="6" t="n">
+        <v>336</v>
+      </c>
+      <c r="J643" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K643" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F644" s="1"/>
+      <c r="G644" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I644" s="6" t="n">
+        <v>337</v>
+      </c>
+      <c r="J644" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K644" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F645" s="1"/>
+      <c r="G645" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I645" s="6" t="n">
+        <v>338</v>
+      </c>
+      <c r="J645" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="K645" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E646" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F560" s="1"/>
-      <c r="I560" s="6" t="n">
-        <v>324</v>
-      </c>
-      <c r="J560" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="K560" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="561" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="4"/>
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G561" s="4"/>
-      <c r="H561" s="4"/>
-      <c r="J561" s="15"/>
-      <c r="K561" s="4"/>
-      <c r="L561" s="4"/>
-    </row>
-    <row r="562" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="4"/>
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="G562" s="4"/>
-      <c r="H562" s="4"/>
-      <c r="J562" s="15"/>
-      <c r="K562" s="4"/>
-      <c r="L562" s="4"/>
-    </row>
-    <row r="563" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F563" s="1"/>
-      <c r="G563" s="4" t="s">
+      <c r="F646" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="I646" s="6"/>
+      <c r="J646" s="12"/>
+      <c r="K646" s="8"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F647" s="1"/>
+      <c r="G647" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I563" s="6" t="n">
-        <v>325</v>
-      </c>
-      <c r="J563" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K563" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F564" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="I564" s="6"/>
-      <c r="J564" s="12"/>
-      <c r="K564" s="8"/>
-    </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F565" s="1"/>
-      <c r="G565" s="4"/>
-      <c r="I565" s="6" t="n">
-        <v>326</v>
-      </c>
-      <c r="J565" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="K565" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F566" s="1"/>
-      <c r="G566" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I566" s="6" t="n">
-        <v>327</v>
-      </c>
-      <c r="J566" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="K566" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F567" s="1"/>
-      <c r="G567" s="4"/>
-      <c r="I567" s="6" t="n">
-        <v>328</v>
-      </c>
-      <c r="J567" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="K567" s="8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D568" s="4"/>
-      <c r="E568" s="4"/>
-      <c r="F568" s="1"/>
-      <c r="G568" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I568" s="6" t="n">
-        <v>329</v>
-      </c>
-      <c r="J568" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="K568" s="8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F569" s="1"/>
-      <c r="G569" s="4"/>
-      <c r="I569" s="6" t="n">
-        <v>330</v>
-      </c>
-      <c r="J569" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="K569" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F570" s="1"/>
-      <c r="I570" s="6"/>
-      <c r="J570" s="6"/>
-      <c r="K570" s="8"/>
-    </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F571" s="1"/>
-      <c r="G571" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I571" s="6" t="n">
-        <v>331</v>
-      </c>
-      <c r="J571" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="K571" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F572" s="1"/>
-      <c r="G572" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I572" s="6" t="n">
-        <v>332</v>
-      </c>
-      <c r="J572" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K572" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F573" s="1"/>
-      <c r="G573" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I573" s="6" t="n">
-        <v>333</v>
-      </c>
-      <c r="J573" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K573" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F574" s="1"/>
-      <c r="G574" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I574" s="6" t="n">
-        <v>334</v>
-      </c>
-      <c r="J574" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="K574" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F575" s="1"/>
-      <c r="G575" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I575" s="6" t="n">
-        <v>335</v>
-      </c>
-      <c r="J575" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K575" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F576" s="1"/>
-      <c r="G576" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I576" s="6" t="n">
-        <v>336</v>
-      </c>
-      <c r="J576" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K576" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F577" s="1"/>
-      <c r="G577" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I577" s="6" t="n">
-        <v>337</v>
-      </c>
-      <c r="J577" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K577" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F578" s="1"/>
-      <c r="G578" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I578" s="6" t="n">
-        <v>338</v>
-      </c>
-      <c r="J578" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="K578" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F579" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="I579" s="6"/>
-      <c r="J579" s="12"/>
-      <c r="K579" s="8"/>
-    </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F580" s="1"/>
-      <c r="G580" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I580" s="6" t="n">
+      <c r="I647" s="6" t="n">
         <v>339</v>
       </c>
-      <c r="J580" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="K580" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F581" s="1"/>
-      <c r="G581" s="4"/>
-      <c r="I581" s="6" t="n">
+      <c r="J647" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="K647" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F648" s="1"/>
+      <c r="G648" s="4"/>
+      <c r="I648" s="6" t="n">
         <v>340</v>
       </c>
-      <c r="J581" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="K581" s="8" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F582" s="1"/>
-      <c r="G582" s="4"/>
-      <c r="I582" s="6" t="n">
+      <c r="J648" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="K648" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F649" s="1"/>
+      <c r="G649" s="4"/>
+      <c r="I649" s="6" t="n">
         <v>341</v>
       </c>
-      <c r="J582" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="K582" s="8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F583" s="1"/>
-      <c r="G583" s="4"/>
-      <c r="I583" s="6"/>
-      <c r="J583" s="6"/>
-      <c r="K583" s="8"/>
-    </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F584" s="1"/>
-      <c r="G584" s="4"/>
-      <c r="I584" s="6"/>
-      <c r="J584" s="6"/>
-      <c r="K584" s="8"/>
-    </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="1" t="s">
+      <c r="J649" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="K649" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F650" s="1"/>
+      <c r="G650" s="4"/>
+      <c r="I650" s="6"/>
+      <c r="J650" s="6"/>
+      <c r="K650" s="8"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F651" s="1"/>
+      <c r="G651" s="4"/>
+      <c r="I651" s="6"/>
+      <c r="J651" s="6"/>
+      <c r="K651" s="8"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E652" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F585" s="1" t="n">
+      <c r="F652" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J585" s="6"/>
-      <c r="K585" s="6"/>
-    </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="1" t="s">
+      <c r="J652" s="6"/>
+      <c r="K652" s="6"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E653" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F586" s="1"/>
-    </row>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="1" t="s">
+      <c r="F653" s="1"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E654" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F587" s="1"/>
-    </row>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F588" s="1"/>
-    </row>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F589" s="1"/>
-      <c r="G589" s="2"/>
-    </row>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F590" s="1"/>
-      <c r="G590" s="2"/>
+      <c r="F654" s="1"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F655" s="1"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F656" s="1"/>
+      <c r="G656" s="2"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F657" s="1"/>
+      <c r="G657" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I108:I339 I4:I106 I341:I547 J589:J590 J548:J552 J583:J584 J556 J570 I549:I1048576">
+  <conditionalFormatting sqref="I108:I339 I4:I106 J656:J657 J615:J619 J650:J651 J623 J637 I616:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I602:I610 I564:I596 I554:I561">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I562:I563">
+    <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="813">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -3499,6 +3499,269 @@
   </si>
   <si>
     <t xml:space="preserve">She ran away... </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">negotiation_darkness</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、ケトルの姿を見なかったか？ コルゴンにボロボロにされたジョウロを直してもらおうと思ったんだが、どこにも見当たらなくてな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, have you seen Kettle around? Corgon made a real mess of my watering can, and I was hoping Kettle could patch it up, but he's nowhere to be found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そういえば、しばらく姿を見かけませんね。私もひび割れた鍋の修理を頼みたいと思っていたところです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now that you mention it, I haven't seen him for quite a while. I was hoping he might mend my cracked pot, as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">困ったな。クルイツゥアにも聞いてみたが、なぜかケトルの名を出すだけで機嫌を悪くしてしまうんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is troubling. I asked Quruitzia too, but oddly, just mentioning Kettle's name sets her off in a foul mood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの子は悩みの多い年頃なのですよ。そうですね、デミタス先生にケトルさんを見かけたか聞いてみましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, she is at a delicate age, burdened with many worries. Perhaps we should inquire with Master Demitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…？　なんでまた、あんな亡霊を先生と？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...? Why would you call that ghost a master?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、失礼ですよ、ロイテル様。あの方は、知れば知るほど謎めいていて…まるで古代の遺跡のように、その内に多くを秘めているのです。生前は魔法書の複製を手掛けるほどの賢者だったとか。
+だから、私は敬意を込めて先生とお呼びすることにしたのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, now, that's hardly respectful, Lord Loytel. The more you learn about him, the more intriguing he becomes—like an ancient ruin filled with hidden secrets. They say that in life, he even dabbled in the replication of magical tomes—a true scholar.
+That’s why I’ve chosen to address him respectfully as 'Master.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん…いや、何もいわないでおこう。デミタスを見る時、あなたの目はいつも輝いていたからな。
+よし、早速その「先生」の所に行ってみよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris... No, I'll say nothing more. Your eyes always sparkle when you speak of him.
+Very well, let’s visit this 'Master' of yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去れ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも先生、どうかお話を！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Master, please grant us a moment!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我は弟子をとった覚えなどない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recall taking no disciples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあまあ、二人とも穏便にしてくれ。実はケトルを探しているんだが、どこに行ったか知らないか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, now, let's all remain calm. We're looking for Kettle—do you know where he's gone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんなことか…ククク…あの者は、汝らに何も告げず旅立ったのだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is that all? Heh heh heh... So, the man has left without a word, has he?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅立った？　いったいどこへ、何のために？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left? To where, and for what purpose?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者の行先など一つしかない。かつての弟子、イスシズルを訪ねているのだろう。交渉でも持ちかけるつもりでな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His destination can only be one place—to seek out his former disciple, Issizzle. Perhaps to negotiate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうか、きっとコルゴンとクルイツゥアを守るために…だが、交渉の材料など、我々にあるだろうか。ケトルの身も心配だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation? Surely, it's to protect Quruitzia and Corgon... but do we have anything of value to offer? I worry greatly for Kettle’s safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…竜の子と災いの魔女を守るためと？
+ククク…めでたいものだ。あるいは、その二人こそが交渉の駒になるかもしれぬとは、心によぎりもしないのだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...To protect the dragon child and the ill-eyed witch? 
+Heh heh heh... How charmingly naive. Hast thou never considered that those two might themselves be bargaining chips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前さん…まさか、ケトルが我々を売るつもりだとでもいいたいのか？　そんなことあるはずがない！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you suggesting... Kettle would betray us? That’s absurd!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝はケトルの何を知っている？　ザシム王の時代…この身がまだ人間だった頃、我はあの者を知っていた。弟子のイスシズルもな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... What dost thou truly know of Kettle? Back in the reign of King Zashim, when I yet walked as a man, I knew him well—him and his disciple Issizzle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔石に取り憑かれたイスシズルを討つため、ケトルが弟子の居城におもむいた時、我はそこにいたのだ。
+…あの日、二人が密室で何を語り合ったかは知らぬ。だが、ケトルはその手を血に染めることなく、イスシズルの部屋を後にした。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Kettle went to confront Issizzle, who was already ensnared by the Magic Stone, I was there. 
+...What the two whispered of within those walls, I know not. Yet when Kettle emerged, his hands were free of blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やがて、かつてのよりを戻したかのように、黒いマントの男がたびたびケトルの元を訪れるようになった。
+黒いマントの男…ククク…そう、その時はイスシズルもまだ人の心を持った人間だったのだ。その時はな。
+魔石があの男をどのような恐ろしい化け物に変えたかは、汝らも耳にしているだろう。不浄なる闇、亡者を操る呪われた死霊使い…ひとたびその名が囁かれれば、子どもは泣き、大人ですら震え上がる穢れた存在だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon after, a figure cloaked in black bagan to visit Kettle, time and again, as though the bond between master and student had never been severed.
+A man in black... heh heh heh... indeed, Issizzle still remained human then.
+But thou knowest well what dread monster the Magic Stone eventually made of him. An unholy darkness, a necromancer who commands the dead... whose whispered name strikes terror into children and adults alike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
+我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
+I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said Issizzle was captivated by the Stone. Heh heh heh... Perhaps he, too, is but another soul bound by its wicked allure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんな、信じられません。あのケトルさんが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No... I can’t believe it. Not Kettle...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私もだ。ケトルは確かに謎だらけだし、話を聞いていると、彼が「人間」かどうかもわからなくなる。
+だが、竜の子に魔女の子、おまけに宙に浮かぶボロ布の亡霊とこうやって話している今、そんなことはどうでもよく思えてくるよ…おっと、ボロ布とは流石に失礼だったな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor can I. 
+Kettle is a riddle, to be sure, I cannot even say for certain if he is human. But considering I’m living with a floating ragged ghost nowadays, on top of a dragon hatchling, and the descendant of an ancient witch, I suppose such questions hardly matter anymore... Oh, no offense meant by 'ragged ghost.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…なんとでも呼ぶがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Call me as thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ともかく、ケトルが何を考えているにせよ、我々は彼を信じて帰りを待つだけだ。残念だが、壊れた鍋の修理はまだ先になりそうだな、ファリスさん。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless, whatever Kettle’s intentions may be, we have no choice but to trust him and await his return. I'm afraid your cracked pot must wait, Lady Farris.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、かまいません。でも、コルゴンがフライパンもボロボロにかじっていて…ふふ、ケトルさんは、帰ってきたらきっと大忙しですね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s quite all right. Though, Corgon has taken quite a liking to chewing through my frying pan as well. Heh, I imagine Kettle will be quite busy when he returns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝らと話していると調子が狂う。…待て、汝にこの腕輪をやろう。我にはもう必要のないものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... Speaking with thee muddles my wits. Here, take this bracelet—I no longer have need of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんだこれは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの東の山脈のふもと、暗く古い森の中に、我々「追放者」の暮らす村がある。結界に守られているが、この腕輪があれば拒まれることはない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the shadow of the eastern mountains of Mysiria lies a dark, ancient forest. There, thou wilt find the village of the Exiles—my kin, my kindred. It is shielded by a barrier, yet this bracelet shall grant thee passage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の長のビチェリンは食えぬ老いぼれだが、今は失われし貴重な知識を持っている。もしイスシズルと、そしてケトルと相対することになるなら、あの老いぼれの授ける力は役に立つだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek out their elder, Bicerin. A cunning old wretch, yet one who holds knowledge long lost to the world. Should thou find thyself facing Issizzle or even Kettle, the elder’s wisdom may yet prove of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の村…その響きだけで、不思議と胸が高鳴ります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Exile’s village... The name alone sets my heart racing with curiosity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ、確かに興味深いが…なぜ我々の手助けをする？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... Intriguing, but why offer us such aid?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…暇つぶしだ。それに、このままではあまりに不公平ではないか？
+汝らは、「神」を相手にしようとしているのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... For idle amusement, perhaps. And, in truth, would it not be too unfair otherwise?
+After all, thou art on the cusp of challenging 'gods'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_exile</t>
   </si>
 </sst>
 </file>
@@ -3669,7 +3932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3792,6 +4055,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3992,12 +4259,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N657"/>
+  <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K567" activeCellId="0" sqref="K567"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="K686" activeCellId="0" sqref="K686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4055,7 +4322,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="1" t="n">
         <f aca="false">MAX(I4:I1048576)</f>
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10903,11 +11170,555 @@
       <c r="G656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="s">
+        <v>738</v>
+      </c>
       <c r="F657" s="1"/>
       <c r="G657" s="2"/>
     </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E658" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F658" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I659" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="J659" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="K659" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G660" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I660" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="J660" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I661" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="J661" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="K661" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G662" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I662" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="J662" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="K662" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I663" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="J663" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="K663" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G664" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I664" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="J664" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K664" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I665" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="J665" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="K665" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E667" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F667" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E668" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F668" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E669" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F669" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E670" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E671" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F671" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G672" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I672" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="J672" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="K672" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G673" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I673" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="J673" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="K673" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G674" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I674" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="J674" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G675" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I675" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="J675" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="K675" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I676" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="J676" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="K676" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G677" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I677" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="J677" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="K677" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I678" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="J678" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G679" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I679" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="J679" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K679" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I680" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="J680" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G681" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I681" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="J681" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K681" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I682" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="J682" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G683" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I683" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="J683" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="K683" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G684" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I684" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="J684" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K684" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G685" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I685" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="J685" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="K685" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G686" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I686" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="J686" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="K686" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G687" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I687" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="J687" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="K687" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J688" s="6"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G689" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I689" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="J689" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="K689" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I690" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="J690" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="K690" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G691" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I691" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="J691" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="K691" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I692" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="J692" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G693" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I693" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="J693" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="K693" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G694" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I694" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="J694" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J695" s="6"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G696" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I696" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="J696" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I697" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="J697" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="K697" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G698" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I698" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="J698" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K698" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G699" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I699" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="J699" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="K699" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G700" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I700" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="J700" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="K700" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I701" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="J701" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K701" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G702" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I702" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="J702" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="K702" s="31" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J703" s="6"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J704" s="6"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E707" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F707" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E709" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I108:I339 I4:I106 J656:J657 J615:J619 J650:J651 J623 J637 I616:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598">
+  <conditionalFormatting sqref="I108:I339 I4:I106 J656 J615:J619 J650:J651 J623 J637 I658:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598 I616:I656">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I602:I610 I564:I596 I554:I561">
@@ -10915,6 +11726,9 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I562:I563">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I657:J657">
+    <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
@@ -3753,12 +3753,29 @@
     <t xml:space="preserve">Hm... Intriguing, but why offer us such aid?</t>
   </si>
   <si>
-    <t xml:space="preserve">ククク…暇つぶしだ。それに、このままではあまりに不公平ではないか？
-汝らは、「神」を相手にしようとしているのだからな。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ククク…暇つぶしだ。それに、このままではあまりに不公平ではないか？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">汝らが対するは、この世界において最も神に近い存在なのだからな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Heh heh heh... For idle amusement, perhaps. And, in truth, would it not be too unfair otherwise?
-After all, thou art on the cusp of challenging 'gods'.</t>
+Verily, thou art about to stand against the one closest to the gods in this realm.</t>
   </si>
   <si>
     <t xml:space="preserve">key_exile</t>
@@ -3932,7 +3949,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4055,10 +4072,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4262,9 +4275,9 @@
   <dimension ref="A1:N709"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K686" activeCellId="0" sqref="K686"/>
+      <selection pane="bottomLeft" activeCell="J702" activeCellId="0" sqref="J702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11245,7 +11258,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G664" s="1" t="s">
         <v>153</v>
       </c>
@@ -11259,7 +11272,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I665" s="1" t="n">
         <v>396</v>
       </c>
@@ -11427,7 +11440,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G681" s="1" t="s">
         <v>724</v>
       </c>
@@ -11441,7 +11454,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I682" s="1" t="n">
         <v>407</v>
       </c>
@@ -11466,7 +11479,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G684" s="1" t="s">
         <v>724</v>
       </c>
@@ -11476,11 +11489,11 @@
       <c r="J684" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="K684" s="31" t="s">
+      <c r="K684" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G685" s="1" t="s">
         <v>724</v>
       </c>
@@ -11494,7 +11507,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G686" s="1" t="s">
         <v>724</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I690" s="1" t="n">
         <v>414</v>
       </c>
@@ -11631,7 +11644,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G698" s="1" t="s">
         <v>724</v>
       </c>
@@ -11684,7 +11697,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G702" s="1" t="s">
         <v>724</v>
       </c>
@@ -11694,7 +11707,7 @@
       <c r="J702" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="K702" s="31" t="s">
+      <c r="K702" s="4" t="s">
         <v>811</v>
       </c>
     </row>

--- a/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/loytel.xlsx
@@ -1892,20 +1892,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at these gruesome corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    <t xml:space="preserve">焼け焦げた無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Look at these gruesome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">charred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">いや、竜はこんなことはしない。
 竜は特異な生物だ。その力を中心に運命は模様を変え、その力に魅入られた様々な存在を引き寄せる。
-この焼け焦げた死体に刻まれた印には見覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
+この焦げた死体に残る特有の匂いには覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
   </si>
   <si>
     <t xml:space="preserve">No, dragons don't do this.
 Dragons are singular creatures. Fate weaves around their power, attracting various beings drawn by it.
-I recognize these marks on the charred bodies... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
+This scorched corpse carries a scent I recognize... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
   </si>
   <si>
     <t xml:space="preserve">コルゴンの手下といったところか。よし、#pc、ここは冒険者のお前に任せる。
@@ -3671,11 +3700,11 @@
   </si>
   <si>
     <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
-我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+我は覚えているぞ。魔石について語るケトルの声はいつも、抑えきれぬ興奮と熱に震えていたことを。</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
-I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+I remember it well. Whenever he spoke of the Magic Stone, his voice trembled with barely contained fervor and heat.</t>
   </si>
   <si>
     <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
@@ -3949,7 +3978,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4072,6 +4101,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4274,10 +4307,10 @@
   </sheetPr>
   <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="J702" activeCellId="0" sqref="J702"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K325" activeCellId="0" sqref="K325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7134,7 +7167,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I331" s="1" t="n">
         <v>166</v>
       </c>
@@ -7145,7 +7178,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G332" s="1" t="s">
         <v>182</v>
       </c>
@@ -11514,7 +11547,7 @@
       <c r="I686" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="J686" s="7" t="s">
+      <c r="J686" s="31" t="s">
         <v>784</v>
       </c>
       <c r="K686" s="4" t="s">
